--- a/template/media_schedule_template.xlsx
+++ b/template/media_schedule_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4860" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>执行单号</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>年月日</t>
+  </si>
+  <si>
+    <r>
+      <t>dsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台</t>
+    </r>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>一级行业</t>
+  </si>
+  <si>
+    <t>二级行业</t>
   </si>
 </sst>
 </file>
@@ -410,100 +434,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="J1">
         <v>0</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>2</v>
       </c>
-      <c r="I1">
+      <c r="M1">
         <v>3</v>
       </c>
-      <c r="J1">
+      <c r="N1">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <v>5</v>
       </c>
-      <c r="L1">
+      <c r="P1">
         <v>6</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
         <v>7</v>
       </c>
-      <c r="N1">
+      <c r="R1">
         <v>8</v>
       </c>
-      <c r="O1">
+      <c r="S1">
         <v>9</v>
       </c>
-      <c r="P1">
+      <c r="T1">
         <v>10</v>
       </c>
-      <c r="Q1">
+      <c r="U1">
         <v>11</v>
       </c>
-      <c r="R1">
+      <c r="V1">
         <v>12</v>
       </c>
-      <c r="S1">
+      <c r="W1">
         <v>13</v>
       </c>
-      <c r="T1">
+      <c r="X1">
         <v>14</v>
       </c>
-      <c r="U1">
+      <c r="Y1">
         <v>15</v>
       </c>
-      <c r="V1">
+      <c r="Z1">
         <v>16</v>
       </c>
-      <c r="W1">
+      <c r="AA1">
         <v>17</v>
       </c>
-      <c r="X1">
+      <c r="AB1">
         <v>18</v>
       </c>
-      <c r="Y1">
+      <c r="AC1">
         <v>19</v>
       </c>
-      <c r="Z1">
+      <c r="AD1">
         <v>20</v>
       </c>
-      <c r="AA1">
+      <c r="AE1">
         <v>21</v>
       </c>
-      <c r="AB1">
+      <c r="AF1">
         <v>22</v>
       </c>
-      <c r="AC1">
+      <c r="AG1">
         <v>23</v>
       </c>
     </row>
